--- a/results/example5/example5.xlsx
+++ b/results/example5/example5.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\git\CryoGrid\param_file_templates\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\git\CryoGrid\results\example5\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -872,8 +872,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F208"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="A97" sqref="A97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1632,7 +1632,7 @@
         <v>0</v>
       </c>
       <c r="F84">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
@@ -1720,10 +1720,10 @@
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="B97">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
@@ -1731,7 +1731,7 @@
         <v>2</v>
       </c>
       <c r="B98">
-        <v>-1</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
@@ -1739,7 +1739,7 @@
         <v>100</v>
       </c>
       <c r="B99">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
